--- a/_resource/excel/1020-全局配置.xlsx
+++ b/_resource/excel/1020-全局配置.xlsx
@@ -23,7 +23,7 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,34 +109,34 @@
     <t>配置说明</t>
   </si>
   <si>
+    <t>字段名(不能改这个字段)</t>
+  </si>
+  <si>
+    <t>键值</t>
+  </si>
+  <si>
     <t>开服渠道</t>
   </si>
   <si>
     <t>运营类型</t>
   </si>
   <si>
-    <t>字段名(不能改这个字段)</t>
-  </si>
-  <si>
-    <t>键值</t>
-  </si>
-  <si>
     <t>设置数值</t>
   </si>
   <si>
     <t>Description(string)</t>
   </si>
   <si>
+    <t>Name(string)</t>
+  </si>
+  <si>
+    <t>Key(string)</t>
+  </si>
+  <si>
     <t>Channel(int)</t>
   </si>
   <si>
     <t>Service(int)</t>
-  </si>
-  <si>
-    <t>Name(string)</t>
-  </si>
-  <si>
-    <t>Key(string)</t>
   </si>
   <si>
     <t>Value(string)</t>
@@ -204,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -244,7 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +254,65 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,51 +324,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,9 +356,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,53 +386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -397,7 +397,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,7 +430,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,25 +496,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,102 +604,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -587,36 +611,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,19 +641,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -676,6 +670,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,30 +732,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -750,10 +744,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,16 +756,16 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,119 +774,119 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,9 +920,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -938,9 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -988,9 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1420,15 +1405,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="13.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="38.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="13.75" style="6" customWidth="1"/>
     <col min="6" max="6" width="17.25" style="8" customWidth="1"/>
     <col min="7" max="7" width="53.125" style="7" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="7" customWidth="1"/>
@@ -1445,7 +1430,7 @@
     <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1454,52 +1439,45 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:13">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="9">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
       <c r="E3" s="9">
@@ -1508,633 +1486,626 @@
       <c r="F3" s="10">
         <v>3</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:13">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:6">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="E5" s="16">
         <v>0</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="C6" s="18">
+      <c r="E6" s="16">
         <v>0</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:6">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
         <v>0</v>
       </c>
-      <c r="C7" s="22">
+      <c r="E7" s="20">
         <v>0</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="22"/>
       <c r="F7" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:6">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
         <v>0</v>
       </c>
-      <c r="C8" s="22">
+      <c r="E8" s="20">
         <v>0</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="22"/>
       <c r="F8" s="10">
         <v>60000</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20">
         <v>0</v>
       </c>
-      <c r="C9" s="22">
+      <c r="E9" s="20">
         <v>0</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="22"/>
       <c r="F9" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:6">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20">
         <v>0</v>
       </c>
-      <c r="C10" s="22">
+      <c r="E10" s="20">
         <v>0</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="22"/>
       <c r="F10" s="10">
         <v>10000</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:6">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20">
         <v>0</v>
       </c>
-      <c r="C11" s="22">
+      <c r="E11" s="20">
         <v>0</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="22"/>
       <c r="F11" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:6">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20">
         <v>0</v>
       </c>
-      <c r="C12" s="22">
+      <c r="E12" s="20">
         <v>0</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="22"/>
       <c r="F12" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:6">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="25"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="15" spans="1:6">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:6">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:6">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:6">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:6">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:6">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:6">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="10"/>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:6">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="A23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:6">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="A24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:6">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="22"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:6">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="22"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:6">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:6">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:6">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="10"/>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:6">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="22"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="10"/>
     </row>
     <row r="35" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="22"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="10"/>
     </row>
     <row r="36" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="22"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="22"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="22"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="22"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="22"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="22"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="10"/>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:6">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="20"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" s="4" customFormat="1" spans="1:6">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="20"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" s="4" customFormat="1" spans="1:6">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="20"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:6">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="20"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" s="4" customFormat="1" spans="1:6">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="20"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" s="4" customFormat="1" spans="1:6">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="20"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:6">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="20"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" s="4" customFormat="1" spans="1:6">
-      <c r="A52" s="27"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="20"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" s="4" customFormat="1" spans="1:6">
-      <c r="A53" s="27"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="20"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" s="4" customFormat="1" spans="1:6">
-      <c r="A54" s="27"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="20"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" s="4" customFormat="1" spans="1:6">
-      <c r="A55" s="27"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="20"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" s="4" customFormat="1" spans="1:6">
-      <c r="A56" s="27"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="20"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" s="4" customFormat="1" ht="15" spans="1:6">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="28"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="29"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="29"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="F60" s="31"/>
+      <c r="A60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="F61" s="31"/>
+      <c r="A61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="F62" s="31"/>
+      <c r="A62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="F63" s="31"/>
+      <c r="A63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="F64" s="31"/>
+      <c r="A64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="F65" s="31"/>
+      <c r="A65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="F66" s="31"/>
+      <c r="A66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="F67" s="31"/>
+      <c r="A67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="F68" s="31"/>
+      <c r="A68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="F69" s="31"/>
+      <c r="A69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="F70" s="31"/>
+      <c r="A70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="6:6">
-      <c r="F71" s="31"/>
+      <c r="F71" s="29"/>
     </row>
     <row r="72" spans="6:6">
-      <c r="F72" s="31"/>
+      <c r="F72" s="29"/>
     </row>
     <row r="73" spans="6:6">
-      <c r="F73" s="31"/>
+      <c r="F73" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/_resource/excel/1020-全局配置.xlsx
+++ b/_resource/excel/1020-全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26340" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -204,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -243,17 +243,130 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,126 +379,13 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -430,31 +430,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,151 +574,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,20 +641,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +659,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,24 +713,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,15 +736,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -744,10 +744,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,133 +756,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1405,7 +1405,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/_resource/excel/1020-全局配置.xlsx
+++ b/_resource/excel/1020-全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F60" authorId="1">
+    <comment ref="F57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>#option</t>
   </si>
@@ -142,34 +142,10 @@
     <t>Value(string)</t>
   </si>
   <si>
-    <t>转发集群名字</t>
-  </si>
-  <si>
-    <t>clustername</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>转发集群秘钥</t>
-  </si>
-  <si>
-    <t>clusterkey</t>
-  </si>
-  <si>
-    <t>route@kframe,./</t>
-  </si>
-  <si>
     <t>玩家掉线保存时间( 单位: 毫秒 )</t>
   </si>
   <si>
     <t>disconnettime</t>
-  </si>
-  <si>
-    <t>玩家定时保存数据库时间( 单位: 毫秒 )</t>
-  </si>
-  <si>
-    <t>playersavetime</t>
   </si>
   <si>
     <t>充值查询的次数</t>
@@ -229,20 +205,147 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -251,141 +354,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -430,187 +406,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,26 +615,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,7 +645,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,11 +665,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,26 +697,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,10 +720,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,137 +732,137 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,10 +875,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,6 +911,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -944,28 +935,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,12 +1373,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1461,8 +1434,8 @@
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -1508,8 +1481,8 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -1528,16 +1501,16 @@
       <c r="E5" s="16">
         <v>0</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>15</v>
+      <c r="F5" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:6">
       <c r="A6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16">
@@ -1546,571 +1519,514 @@
       <c r="E6" s="16">
         <v>0</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:6">
+      <c r="A7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" s="5" customFormat="1" spans="1:6">
-      <c r="A7" s="20" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:6">
+      <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:6">
-      <c r="A8" s="20" t="s">
+      <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" s="4" customFormat="1" spans="1:6">
+      <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20">
+      <c r="B9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="F8" s="10">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:6">
-      <c r="A9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
       <c r="F9" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" spans="1:6">
-      <c r="A10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:6">
-      <c r="A11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="1:6">
-      <c r="A12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:6">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="15" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" s="5" customFormat="1" spans="1:6">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+    <row r="10" s="4" customFormat="1" spans="1:6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="15" spans="1:6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" s="4" customFormat="1" spans="1:6">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:6">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:6">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:6">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" s="5" customFormat="1" spans="1:6">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+    <row r="16" s="4" customFormat="1" spans="1:6">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" s="5" customFormat="1" spans="1:6">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+    <row r="17" s="4" customFormat="1" spans="1:6">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:6">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+    <row r="18" s="4" customFormat="1" spans="1:6">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:6">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+    <row r="19" s="4" customFormat="1" spans="1:6">
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" s="5" customFormat="1" spans="1:6">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+    <row r="20" s="4" customFormat="1" spans="1:6">
+      <c r="A20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" s="5" customFormat="1" spans="1:6">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+    <row r="21" s="4" customFormat="1" spans="1:6">
+      <c r="A21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+    <row r="22" s="4" customFormat="1" spans="1:6">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:6">
-      <c r="A23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+    <row r="23" s="4" customFormat="1" spans="1:6">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" s="5" customFormat="1" spans="1:6">
-      <c r="A24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+    <row r="24" s="4" customFormat="1" spans="1:6">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" s="5" customFormat="1" spans="1:6">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+    <row r="25" s="4" customFormat="1" spans="1:6">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:6">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+    <row r="26" s="4" customFormat="1" spans="1:6">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" s="5" customFormat="1" spans="1:6">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+    <row r="27" s="4" customFormat="1" spans="1:6">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" s="5" customFormat="1" spans="1:6">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+    <row r="28" s="4" customFormat="1" spans="1:6">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" s="5" customFormat="1" spans="1:6">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" s="5" customFormat="1" spans="1:6">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:6">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+    <row r="31" spans="1:6">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+    <row r="32" ht="12.75" customHeight="1" spans="1:6">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+    <row r="33" ht="12.75" customHeight="1" spans="1:6">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
+    <row r="35" spans="1:6">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="1:6">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" s="4" customFormat="1" spans="1:6">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" s="4" customFormat="1" spans="1:6">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" s="4" customFormat="1" spans="1:6">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" s="4" customFormat="1" spans="1:6">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" s="4" customFormat="1" spans="1:6">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" s="4" customFormat="1" spans="1:6">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" s="4" customFormat="1" spans="1:6">
-      <c r="A52" s="25"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" s="4" customFormat="1" spans="1:6">
-      <c r="A53" s="25"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" s="4" customFormat="1" spans="1:6">
-      <c r="A54" s="25"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" s="4" customFormat="1" spans="1:6">
-      <c r="A55" s="25"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="16"/>
+    <row r="42" s="5" customFormat="1" spans="1:6">
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" s="5" customFormat="1" spans="1:6">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" s="5" customFormat="1" spans="1:6">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" s="5" customFormat="1" spans="1:6">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" s="5" customFormat="1" spans="1:6">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" s="5" customFormat="1" spans="1:6">
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" s="5" customFormat="1" spans="1:6">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" s="5" customFormat="1" spans="1:6">
+      <c r="A49" s="24"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" s="5" customFormat="1" spans="1:6">
+      <c r="A50" s="24"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" s="5" customFormat="1" spans="1:6">
+      <c r="A51" s="24"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="23"/>
+    </row>
+    <row r="52" s="5" customFormat="1" spans="1:6">
+      <c r="A52" s="24"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" s="5" customFormat="1" spans="1:6">
+      <c r="A53" s="24"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" s="5" customFormat="1" ht="15" spans="1:6">
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="16"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" s="4" customFormat="1" spans="1:6">
-      <c r="A56" s="25"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="16"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="16"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" s="4" customFormat="1" ht="15" spans="1:6">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="26"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="20"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="10"/>
+      <c r="A58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="20"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="10"/>
+      <c r="A59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="29"/>
+      <c r="A60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="29"/>
+      <c r="A61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="29"/>
+      <c r="A62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="29"/>
+      <c r="A63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
+      <c r="A64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="29"/>
+      <c r="A65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="29"/>
+      <c r="A66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="29"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="29"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="29"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="29"/>
-    </row>
-    <row r="71" spans="6:6">
-      <c r="F71" s="29"/>
-    </row>
-    <row r="72" spans="6:6">
-      <c r="F72" s="29"/>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" s="29"/>
+      <c r="A67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="28"/>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="28"/>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="28"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F6" r:id="rId3" display="route@kframe,./" tooltip="mailto:route@kframe,./"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/_resource/excel/1020-全局配置.xlsx
+++ b/_resource/excel/1020-全局配置.xlsx
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="1">
+    <comment ref="F53" authorId="1">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>#option</t>
   </si>
@@ -147,43 +147,16 @@
   <si>
     <t>disconnettime</t>
   </si>
-  <si>
-    <t>充值查询的次数</t>
-  </si>
-  <si>
-    <t>payquerycount</t>
-  </si>
-  <si>
-    <t>充值查询的间隔时间</t>
-  </si>
-  <si>
-    <t>payquerytime</t>
-  </si>
-  <si>
-    <t>英雄名字连接符号</t>
-  </si>
-  <si>
-    <t>joint</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>角色名字最大长度</t>
-  </si>
-  <si>
-    <t>playernamelength</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -211,40 +184,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,93 +214,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,6 +238,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -406,49 +379,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,133 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,32 +588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -661,6 +608,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,20 +660,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,10 +693,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,133 +705,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -917,14 +890,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1373,12 +1346,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="$A6:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1506,76 +1479,36 @@
       </c>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:6">
-      <c r="A6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:6">
-      <c r="A7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="15" spans="1:6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>10000</v>
-      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:6">
-      <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:6">
-      <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>14</v>
-      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:6">
       <c r="A10" s="16"/>
@@ -1583,15 +1516,15 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="15" spans="1:6">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:6">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:6">
       <c r="A12" s="16"/>
@@ -1618,7 +1551,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:6">
-      <c r="A15" s="16"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1627,7 +1560,6 @@
     </row>
     <row r="16" s="4" customFormat="1" spans="1:6">
       <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1635,7 +1567,6 @@
     </row>
     <row r="17" s="4" customFormat="1" spans="1:6">
       <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -1650,7 +1581,7 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:6">
-      <c r="A19" s="18"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1659,6 +1590,7 @@
     </row>
     <row r="20" s="4" customFormat="1" spans="1:6">
       <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1666,6 +1598,7 @@
     </row>
     <row r="21" s="4" customFormat="1" spans="1:6">
       <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1695,7 +1628,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="16"/>
@@ -1703,7 +1636,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="16"/>
@@ -1711,7 +1644,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="16"/>
@@ -1719,7 +1652,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" s="4" customFormat="1" spans="1:6">
+    <row r="28" ht="12.75" customHeight="1" spans="1:6">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="16"/>
@@ -1727,7 +1660,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" ht="12.75" customHeight="1" spans="1:6">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="16"/>
@@ -1751,7 +1684,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="16"/>
@@ -1759,7 +1692,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="16"/>
@@ -1799,37 +1732,37 @@
       <c r="E37" s="16"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="10"/>
+    <row r="38" s="5" customFormat="1" spans="1:6">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" s="5" customFormat="1" spans="1:6">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" s="5" customFormat="1" spans="1:6">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" s="5" customFormat="1" spans="1:6">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" s="5" customFormat="1" spans="1:6">
       <c r="A42" s="21"/>
@@ -1856,7 +1789,7 @@
       <c r="F44" s="23"/>
     </row>
     <row r="45" s="5" customFormat="1" spans="1:6">
-      <c r="A45" s="21"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
@@ -1864,7 +1797,7 @@
       <c r="F45" s="23"/>
     </row>
     <row r="46" s="5" customFormat="1" spans="1:6">
-      <c r="A46" s="21"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -1872,7 +1805,7 @@
       <c r="F46" s="23"/>
     </row>
     <row r="47" s="5" customFormat="1" spans="1:6">
-      <c r="A47" s="21"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
@@ -1880,7 +1813,7 @@
       <c r="F47" s="23"/>
     </row>
     <row r="48" s="5" customFormat="1" spans="1:6">
-      <c r="A48" s="21"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
@@ -1895,61 +1828,53 @@
       <c r="E49" s="21"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" s="5" customFormat="1" spans="1:6">
-      <c r="A50" s="24"/>
+    <row r="50" s="5" customFormat="1" ht="15" spans="1:6">
+      <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
-      <c r="F50" s="23"/>
-    </row>
-    <row r="51" s="5" customFormat="1" spans="1:6">
-      <c r="A51" s="24"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="23"/>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="1:6">
-      <c r="A52" s="24"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="23"/>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="1:6">
-      <c r="A53" s="24"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" s="5" customFormat="1" ht="15" spans="1:6">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="25"/>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="16"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="16"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="16"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="10"/>
+      <c r="A55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="16"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="10"/>
+      <c r="A56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="27"/>
@@ -1993,38 +1918,14 @@
       <c r="E63" s="27"/>
       <c r="F63" s="28"/>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+    <row r="64" spans="6:6">
       <c r="F64" s="28"/>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+    <row r="65" spans="6:6">
       <c r="F65" s="28"/>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+    <row r="66" spans="6:6">
       <c r="F66" s="28"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="28"/>
-    </row>
-    <row r="68" spans="6:6">
-      <c r="F68" s="28"/>
-    </row>
-    <row r="69" spans="6:6">
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
